--- a/Test Data/Gallery_All_Loop_Devices.xlsx
+++ b/Test Data/Gallery_All_Loop_Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEEAB33-53E3-454C-96DD-F43DB8BCF371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D467DAF-408E-428E-AB03-8CE2ACCDC505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
   <si>
     <t>801 CH</t>
   </si>
@@ -366,17 +366,47 @@
     <t>801 PS</t>
   </si>
   <si>
-    <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865</t>
-  </si>
-  <si>
     <t>NGC-3475/T1753/T1832/T2328/T1858/T1824/T2327/T1865</t>
+  </si>
+  <si>
+    <t>835 H</t>
+  </si>
+  <si>
+    <t>835PH</t>
+  </si>
+  <si>
+    <t>835P</t>
+  </si>
+  <si>
+    <t>835PC</t>
+  </si>
+  <si>
+    <t>855PH</t>
+  </si>
+  <si>
+    <t>855P</t>
+  </si>
+  <si>
+    <t>855H</t>
+  </si>
+  <si>
+    <t>855PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">835PC Car Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">855PC Car Park </t>
+  </si>
+  <si>
+    <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865/NGC-3479/T2431</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,8 +429,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -455,11 +498,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -471,6 +527,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -791,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4546DD-CCE5-4792-9349-12E338831249}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -920,67 +982,117 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -996,37 +1108,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930A230-ABEE-406B-B653-D1FDD4F74EDE}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1043,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1150,47 +1262,97 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1208,35 +1370,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AFD7E-E05F-42ED-9966-5FEB942F62E7}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1253,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1328,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D308FA-8D04-462A-92AB-06E1C4054C43}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1341,22 +1503,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1373,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1541,22 +1703,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1573,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1746,22 +1908,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1778,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1876,22 +2038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1908,7 +2070,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1991,22 +2153,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2023,7 +2185,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_All_Loop_Devices.xlsx
+++ b/Test Data/Gallery_All_Loop_Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D467DAF-408E-428E-AB03-8CE2ACCDC505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98216E4-05BC-4392-A343-2277067B3266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="2" r:id="rId1"/>
@@ -366,40 +366,40 @@
     <t>801 PS</t>
   </si>
   <si>
-    <t>NGC-3475/T1753/T1832/T2328/T1858/T1824/T2327/T1865</t>
-  </si>
-  <si>
     <t>835 H</t>
   </si>
   <si>
-    <t>835PH</t>
-  </si>
-  <si>
-    <t>835P</t>
-  </si>
-  <si>
-    <t>835PC</t>
-  </si>
-  <si>
-    <t>855PH</t>
-  </si>
-  <si>
-    <t>855P</t>
-  </si>
-  <si>
-    <t>855H</t>
-  </si>
-  <si>
-    <t>855PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835PC Car Park </t>
-  </si>
-  <si>
-    <t xml:space="preserve">855PC Car Park </t>
-  </si>
-  <si>
-    <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865/NGC-3479/T2431</t>
+    <t>835 PC</t>
+  </si>
+  <si>
+    <t>835 PH</t>
+  </si>
+  <si>
+    <t>835 P</t>
+  </si>
+  <si>
+    <t>855 PH</t>
+  </si>
+  <si>
+    <t>855 P</t>
+  </si>
+  <si>
+    <t>855 H</t>
+  </si>
+  <si>
+    <t>855 PC</t>
+  </si>
+  <si>
+    <t>855 PC Car Park</t>
+  </si>
+  <si>
+    <t>835 PC Car Park</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865/NGC-3479/T2431/NGC-2930/T3173/T1832/T1824</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1753/T1832/T2328/T1858/T1824/T2327/T1865/NGC-2930/T3173/T1832/T1824</t>
   </si>
 </sst>
 </file>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4546DD-CCE5-4792-9349-12E338831249}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,176 +925,211 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1110,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930A230-ABEE-406B-B653-D1FDD4F74EDE}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1180,31 +1215,37 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1215,143 +1256,168 @@
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
@@ -1370,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AFD7E-E05F-42ED-9966-5FEB942F62E7}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1490,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D308FA-8D04-462A-92AB-06E1C4054C43}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1535,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1691,7 +1757,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1894,6 +1960,251 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F533E191-0CB0-4FA8-A077-2EAE1CD2C6E3}">
   <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9E02C9-315B-46B9-A4B7-CF7DC4588372}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3D0B9-9AF9-4EE8-9D73-020C3D2D7A0C}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1940,252 +2251,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9E02C9-315B-46B9-A4B7-CF7DC4588372}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3D0B9-9AF9-4EE8-9D73-020C3D2D7A0C}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_All_Loop_Devices.xlsx
+++ b/Test Data/Gallery_All_Loop_Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98216E4-05BC-4392-A343-2277067B3266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD52F4-22EA-4D53-B64A-5771967A013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>801 CH</t>
   </si>
@@ -360,9 +360,6 @@
     <t xml:space="preserve">P80AI - R/W </t>
   </si>
   <si>
-    <t>NGC-3475/T1753</t>
-  </si>
-  <si>
     <t>801 PS</t>
   </si>
   <si>
@@ -396,10 +393,16 @@
     <t>835 PC Car Park</t>
   </si>
   <si>
-    <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865/NGC-3479/T2431/NGC-2930/T3173/T1832/T1824</t>
-  </si>
-  <si>
-    <t>NGC-3475/T1753/T1832/T2328/T1858/T1824/T2327/T1865/NGC-2930/T3173/T1832/T1824</t>
+    <t>NGC-3475/T1753/NGC-3145/T2165/T2229/</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1753/T1832/T2328/T1858/T1824/T2327/T1865/NGC-2930/T3173/T1832/T1824/NGC-3145/T2165/T2229/T2449/T2448</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1753/T1832/T2328/T1858/T1824/T2327/T1865/NGC-2930/T3173/T1832/T1824/NGC-3145/T2165/T2229/T2229/T2449/T2448</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865/NGC-3479/T2431/NGC-2930/T3173/T1832/T1824//NGC-3145/T2165/T2229/T2449/T2448</t>
   </si>
 </sst>
 </file>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4546DD-CCE5-4792-9349-12E338831249}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +903,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -996,61 +999,61 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1145,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930A230-ABEE-406B-B653-D1FDD4F74EDE}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1249,7 +1252,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,60 +1316,60 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="3"/>
     </row>
@@ -1481,7 +1484,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1556,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D308FA-8D04-462A-92AB-06E1C4054C43}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1801,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1962,7 +1965,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2009,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -2091,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9E02C9-315B-46B9-A4B7-CF7DC4588372}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2136,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -2251,7 +2254,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_All_Loop_Devices.xlsx
+++ b/Test Data/Gallery_All_Loop_Devices.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD52F4-22EA-4D53-B64A-5771967A013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584148B5-8789-4EA5-A0D4-8D3B090DB425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="2" r:id="rId1"/>
     <sheet name="Detectors_P_MZX_MX" sheetId="10" r:id="rId2"/>
     <sheet name="CallPoints_VDS" sheetId="1" r:id="rId3"/>
-    <sheet name="SoundersBeacons" sheetId="3" r:id="rId4"/>
-    <sheet name="Ancillary" sheetId="7" r:id="rId5"/>
-    <sheet name="Ancillary Conventional" sheetId="4" r:id="rId6"/>
-    <sheet name="Ancillary Specific" sheetId="6" r:id="rId7"/>
-    <sheet name="Other" sheetId="5" r:id="rId8"/>
+    <sheet name="CallPoints" sheetId="11" r:id="rId4"/>
+    <sheet name="SoundersBeacons" sheetId="3" r:id="rId5"/>
+    <sheet name="Ancillary" sheetId="7" r:id="rId6"/>
+    <sheet name="Ancillary_LAV" sheetId="12" r:id="rId7"/>
+    <sheet name="Ancillary Conventional" sheetId="4" r:id="rId8"/>
+    <sheet name="Ancillary Specific" sheetId="6" r:id="rId9"/>
+    <sheet name="Other" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="123">
   <si>
     <t>801 CH</t>
   </si>
@@ -403,6 +405,12 @@
   </si>
   <si>
     <t>NGC-3475/T1832/T2328/T1858/T1824/T2327/T1865/NGC-3479/T2431/NGC-2930/T3173/T1832/T1824//NGC-3145/T2165/T2229/T2449/T2448</t>
+  </si>
+  <si>
+    <t>NGC-2741</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3351/T3352</t>
   </si>
 </sst>
 </file>
@@ -858,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4546DD-CCE5-4792-9349-12E338831249}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1133,6 +1141,111 @@
         <v>24</v>
       </c>
       <c r="B42" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3D0B9-9AF9-4EE8-9D73-020C3D2D7A0C}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1440,7 +1553,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,10 +1669,120 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC851A-E41E-4668-9C50-2D2E7E0F2FD8}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D308FA-8D04-462A-92AB-06E1C4054C43}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1755,12 +1978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43943740-4137-4AB6-A236-4B47588421C3}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +2183,207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9DDA38-A604-4642-BF93-8E3356E46044}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F533E191-0CB0-4FA8-A077-2EAE1CD2C6E3}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2090,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9E02C9-315B-46B9-A4B7-CF7DC4588372}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -2203,109 +2626,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3D0B9-9AF9-4EE8-9D73-020C3D2D7A0C}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>